--- a/data/trans_dic/P21D_4_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P21D_4_R-Edad-trans_dic.xlsx
@@ -613,7 +613,7 @@
         <v>0.009996419627722368</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.005244793763326343</v>
+        <v>0.005244793763326342</v>
       </c>
     </row>
     <row r="8">
@@ -640,10 +640,10 @@
       </c>
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="n">
-        <v>0.04006067871929894</v>
+        <v>0.03870451735750603</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0198057326938419</v>
+        <v>0.0218432333400759</v>
       </c>
     </row>
     <row r="10">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.008979721794087311</v>
+        <v>0.008979721794087313</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.004850568305161545</v>
+        <v>0.004850568305161546</v>
       </c>
     </row>
     <row r="11">
@@ -676,10 +676,10 @@
       </c>
       <c r="C11" s="5" t="inlineStr"/>
       <c r="D11" s="5" t="n">
-        <v>0.002713840868332451</v>
+        <v>0.00235894945869071</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.001258413233861888</v>
+        <v>0.001273699045173915</v>
       </c>
     </row>
     <row r="12">
@@ -691,10 +691,10 @@
       </c>
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="n">
-        <v>0.02316380014907146</v>
+        <v>0.02188201330895152</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01198949385160899</v>
+        <v>0.01174795474093869</v>
       </c>
     </row>
     <row r="13">
@@ -709,13 +709,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.003610461474833439</v>
+        <v>0.00361046147483344</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.005909734921075419</v>
+        <v>0.005909734921075418</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.004809942626789686</v>
+        <v>0.004809942626789685</v>
       </c>
     </row>
     <row r="14">
@@ -729,10 +729,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.001917921966849835</v>
+        <v>0.001937119604815315</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.001040398550587536</v>
+        <v>0.00104838622958792</v>
       </c>
     </row>
     <row r="15">
@@ -743,13 +743,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01837740014545229</v>
+        <v>0.01838838712061448</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01575369337467435</v>
+        <v>0.01570429401093682</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01249838486544414</v>
+        <v>0.01269713689299846</v>
       </c>
     </row>
     <row r="16">
@@ -784,10 +784,10 @@
         <v>0</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.005273338589722392</v>
+        <v>0.005245368306383393</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.005073394483550476</v>
+        <v>0.005261593979968178</v>
       </c>
     </row>
     <row r="18">
@@ -798,13 +798,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02285580599325225</v>
+        <v>0.02532159238417655</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03110281968525383</v>
+        <v>0.03206409348425635</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.02073893521322241</v>
+        <v>0.02236018246017167</v>
       </c>
     </row>
     <row r="19">
@@ -837,10 +837,10 @@
       </c>
       <c r="C20" s="5" t="inlineStr"/>
       <c r="D20" s="5" t="n">
-        <v>0.005978568863912891</v>
+        <v>0.005948300064065613</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.003685880395707298</v>
+        <v>0.003425581631392855</v>
       </c>
     </row>
     <row r="21">
@@ -852,10 +852,10 @@
       </c>
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="n">
-        <v>0.03352274522035386</v>
+        <v>0.03183483996234818</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.01942270486460424</v>
+        <v>0.01852867987325376</v>
       </c>
     </row>
     <row r="22">
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.001855400667279291</v>
+        <v>0.001855400667279292</v>
       </c>
     </row>
     <row r="23">
@@ -902,11 +902,11 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.03288098757191676</v>
+        <v>0.02434567386646371</v>
       </c>
       <c r="D24" s="5" t="inlineStr"/>
       <c r="E24" s="5" t="n">
-        <v>0.009351514938091599</v>
+        <v>0.009318833301880802</v>
       </c>
     </row>
     <row r="25">
@@ -938,13 +938,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.0007177390548879274</v>
+        <v>0.0004214788799540828</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.00538517488020119</v>
+        <v>0.005319653471980081</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.003544061730353377</v>
+        <v>0.00352901250015687</v>
       </c>
     </row>
     <row r="27">
@@ -955,13 +955,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.005644887167911478</v>
+        <v>0.005370324198052581</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.013396874165951</v>
+        <v>0.01318302217112902</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.008180528001902191</v>
+        <v>0.008032887308279724</v>
       </c>
     </row>
     <row r="28">
@@ -1182,10 +1182,10 @@
       </c>
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="n">
-        <v>10029</v>
+        <v>9690</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>9451</v>
+        <v>10423</v>
       </c>
     </row>
     <row r="12">
@@ -1235,10 +1235,10 @@
       </c>
       <c r="C14" s="6" t="inlineStr"/>
       <c r="D14" s="6" t="n">
-        <v>805</v>
+        <v>700</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>691</v>
+        <v>699</v>
       </c>
     </row>
     <row r="15">
@@ -1250,10 +1250,10 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="n">
-        <v>6871</v>
+        <v>6491</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>6584</v>
+        <v>6451</v>
       </c>
     </row>
     <row r="16">
@@ -1305,10 +1305,10 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>690</v>
+        <v>695</v>
       </c>
     </row>
     <row r="19">
@@ -1319,13 +1319,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>5827</v>
+        <v>5830</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>5448</v>
+        <v>5431</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>8285</v>
+        <v>8417</v>
       </c>
     </row>
     <row r="20">
@@ -1377,10 +1377,10 @@
         <v>0</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1337</v>
+        <v>1329</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2592</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="23">
@@ -1391,13 +1391,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>5885</v>
+        <v>6520</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>7883</v>
+        <v>8127</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>10596</v>
+        <v>11425</v>
       </c>
     </row>
     <row r="24">
@@ -1447,10 +1447,10 @@
       </c>
       <c r="C26" s="6" t="inlineStr"/>
       <c r="D26" s="6" t="n">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>1375</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="27">
@@ -1462,10 +1462,10 @@
       </c>
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="n">
-        <v>6670</v>
+        <v>6335</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>7245</v>
+        <v>6912</v>
       </c>
     </row>
     <row r="28">
@@ -1529,11 +1529,11 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>4260</v>
+        <v>3154</v>
       </c>
       <c r="D31" s="6" t="inlineStr"/>
       <c r="E31" s="6" t="n">
-        <v>2952</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="32">
@@ -1582,13 +1582,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>1126</v>
+        <v>661</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>9125</v>
+        <v>9013</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>11563</v>
+        <v>11514</v>
       </c>
     </row>
     <row r="35">
@@ -1599,13 +1599,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>8853</v>
+        <v>8422</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>22699</v>
+        <v>22337</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>26690</v>
+        <v>26208</v>
       </c>
     </row>
     <row r="36">
